--- a/data_final.xlsx
+++ b/data_final.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deols\OneDrive\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56758DD2-0EF4-423C-9B63-2F4E91CD062F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="p60rFlFLXnvKUug73TboTxr6kGwjdcSur5UxGw5YHLs="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="769">
   <si>
     <t>Time</t>
   </si>
@@ -1207,30 +1216,1148 @@
   </si>
   <si>
     <t>1615.4133821273526</t>
+  </si>
+  <si>
+    <t>LEO_SINR_baseline</t>
+  </si>
+  <si>
+    <t>GEO_SINR_baseline</t>
+  </si>
+  <si>
+    <t>LEO_SINR_a2c</t>
+  </si>
+  <si>
+    <t>GEO_SINR_a2c</t>
+  </si>
+  <si>
+    <t>20.39452890380545</t>
+  </si>
+  <si>
+    <t>20.63866232579539</t>
+  </si>
+  <si>
+    <t>20.468621841502983</t>
+  </si>
+  <si>
+    <t>20.313444270636634</t>
+  </si>
+  <si>
+    <t>20.651092742045748</t>
+  </si>
+  <si>
+    <t>21.133468623092146</t>
+  </si>
+  <si>
+    <t>21.099571823949702</t>
+  </si>
+  <si>
+    <t>21.28670086125333</t>
+  </si>
+  <si>
+    <t>21.366853923046065</t>
+  </si>
+  <si>
+    <t>21.330917095882022</t>
+  </si>
+  <si>
+    <t>21.480561838368402</t>
+  </si>
+  <si>
+    <t>21.53903166459998</t>
+  </si>
+  <si>
+    <t>21.687044155984317</t>
+  </si>
+  <si>
+    <t>21.669298185256686</t>
+  </si>
+  <si>
+    <t>21.633702122925754</t>
+  </si>
+  <si>
+    <t>21.313397036711784</t>
+  </si>
+  <si>
+    <t>21.355277883600245</t>
+  </si>
+  <si>
+    <t>21.037488053307293</t>
+  </si>
+  <si>
+    <t>20.374381402955088</t>
+  </si>
+  <si>
+    <t>19.893960478210587</t>
+  </si>
+  <si>
+    <t>19.84147207370099</t>
+  </si>
+  <si>
+    <t>19.427679147074194</t>
+  </si>
+  <si>
+    <t>19.832132664971333</t>
+  </si>
+  <si>
+    <t>19.961912574664566</t>
+  </si>
+  <si>
+    <t>20.356369455653443</t>
+  </si>
+  <si>
+    <t>20.038562291170958</t>
+  </si>
+  <si>
+    <t>20.239956543678158</t>
+  </si>
+  <si>
+    <t>19.85555364856557</t>
+  </si>
+  <si>
+    <t>20.642139308368055</t>
+  </si>
+  <si>
+    <t>20.514747950870873</t>
+  </si>
+  <si>
+    <t>20.257666736328716</t>
+  </si>
+  <si>
+    <t>20.37016330189671</t>
+  </si>
+  <si>
+    <t>20.70817159963428</t>
+  </si>
+  <si>
+    <t>20.379451790375175</t>
+  </si>
+  <si>
+    <t>20.656332270436298</t>
+  </si>
+  <si>
+    <t>20.203614903505255</t>
+  </si>
+  <si>
+    <t>19.69976631039659</t>
+  </si>
+  <si>
+    <t>20.118661750556726</t>
+  </si>
+  <si>
+    <t>20.143270412091795</t>
+  </si>
+  <si>
+    <t>19.50782099658806</t>
+  </si>
+  <si>
+    <t>20.54305548619217</t>
+  </si>
+  <si>
+    <t>20.295944590947617</t>
+  </si>
+  <si>
+    <t>20.48153058900278</t>
+  </si>
+  <si>
+    <t>21.221304309841884</t>
+  </si>
+  <si>
+    <t>21.25985811212362</t>
+  </si>
+  <si>
+    <t>20.93307003857775</t>
+  </si>
+  <si>
+    <t>20.769473992890482</t>
+  </si>
+  <si>
+    <t>21.37090350673823</t>
+  </si>
+  <si>
+    <t>21.092045276799645</t>
+  </si>
+  <si>
+    <t>20.461754806774273</t>
+  </si>
+  <si>
+    <t>20.543039034181326</t>
+  </si>
+  <si>
+    <t>19.93369317934601</t>
+  </si>
+  <si>
+    <t>20.320773857889474</t>
+  </si>
+  <si>
+    <t>20.272868107171874</t>
+  </si>
+  <si>
+    <t>20.746422810000098</t>
+  </si>
+  <si>
+    <t>20.68280307839254</t>
+  </si>
+  <si>
+    <t>21.070576314402388</t>
+  </si>
+  <si>
+    <t>20.779869463773508</t>
+  </si>
+  <si>
+    <t>21.111115841388585</t>
+  </si>
+  <si>
+    <t>20.792387353020754</t>
+  </si>
+  <si>
+    <t>21.46699040088498</t>
+  </si>
+  <si>
+    <t>21.166653589556816</t>
+  </si>
+  <si>
+    <t>21.451415723811373</t>
+  </si>
+  <si>
+    <t>21.188636866777678</t>
+  </si>
+  <si>
+    <t>21.20102112376578</t>
+  </si>
+  <si>
+    <t>20.75871786347293</t>
+  </si>
+  <si>
+    <t>20.852661691974763</t>
+  </si>
+  <si>
+    <t>20.28919143456515</t>
+  </si>
+  <si>
+    <t>20.73145885402158</t>
+  </si>
+  <si>
+    <t>21.196372342357705</t>
+  </si>
+  <si>
+    <t>21.485174912008166</t>
+  </si>
+  <si>
+    <t>21.331892545686458</t>
+  </si>
+  <si>
+    <t>21.27261367309324</t>
+  </si>
+  <si>
+    <t>21.186434288965025</t>
+  </si>
+  <si>
+    <t>20.761303983535907</t>
+  </si>
+  <si>
+    <t>20.73031422887717</t>
+  </si>
+  <si>
+    <t>21.034941371044894</t>
+  </si>
+  <si>
+    <t>20.978344369977904</t>
+  </si>
+  <si>
+    <t>20.567575662908258</t>
+  </si>
+  <si>
+    <t>20.626870821378517</t>
+  </si>
+  <si>
+    <t>20.817546100911297</t>
+  </si>
+  <si>
+    <t>21.13195696393485</t>
+  </si>
+  <si>
+    <t>21.171815903199317</t>
+  </si>
+  <si>
+    <t>21.422212293871294</t>
+  </si>
+  <si>
+    <t>21.40046703622601</t>
+  </si>
+  <si>
+    <t>21.298172231329296</t>
+  </si>
+  <si>
+    <t>20.76241623834354</t>
+  </si>
+  <si>
+    <t>20.97199896089909</t>
+  </si>
+  <si>
+    <t>21.071794127520754</t>
+  </si>
+  <si>
+    <t>20.61307150959157</t>
+  </si>
+  <si>
+    <t>20.687431835522514</t>
+  </si>
+  <si>
+    <t>20.71251582705632</t>
+  </si>
+  <si>
+    <t>20.222082338343068</t>
+  </si>
+  <si>
+    <t>20.22279306827874</t>
+  </si>
+  <si>
+    <t>20.693768450327077</t>
+  </si>
+  <si>
+    <t>20.93662290155782</t>
+  </si>
+  <si>
+    <t>16.977918550285807</t>
+  </si>
+  <si>
+    <t>15.677791338044393</t>
+  </si>
+  <si>
+    <t>13.755594561473064</t>
+  </si>
+  <si>
+    <t>15.483897744062332</t>
+  </si>
+  <si>
+    <t>15.620710968605398</t>
+  </si>
+  <si>
+    <t>16.038702242605645</t>
+  </si>
+  <si>
+    <t>13.333825256790686</t>
+  </si>
+  <si>
+    <t>15.144091486812073</t>
+  </si>
+  <si>
+    <t>15.895635030725622</t>
+  </si>
+  <si>
+    <t>14.804837598674586</t>
+  </si>
+  <si>
+    <t>14.921886732258464</t>
+  </si>
+  <si>
+    <t>17.88268002258753</t>
+  </si>
+  <si>
+    <t>17.61045203002444</t>
+  </si>
+  <si>
+    <t>17.306942843767384</t>
+  </si>
+  <si>
+    <t>15.204447761955569</t>
+  </si>
+  <si>
+    <t>14.932520080016863</t>
+  </si>
+  <si>
+    <t>11.956901175157695</t>
+  </si>
+  <si>
+    <t>8.078504546784457</t>
+  </si>
+  <si>
+    <t>8.541109431392616</t>
+  </si>
+  <si>
+    <t>11.020585613634058</t>
+  </si>
+  <si>
+    <t>9.547873365623875</t>
+  </si>
+  <si>
+    <t>13.534884545170293</t>
+  </si>
+  <si>
+    <t>15.674007268639796</t>
+  </si>
+  <si>
+    <t>15.916968250592708</t>
+  </si>
+  <si>
+    <t>16.23084324423676</t>
+  </si>
+  <si>
+    <t>18.101160097697097</t>
+  </si>
+  <si>
+    <t>17.32289330192996</t>
+  </si>
+  <si>
+    <t>19.277429563365185</t>
+  </si>
+  <si>
+    <t>16.855422013306537</t>
+  </si>
+  <si>
+    <t>17.402851173981155</t>
+  </si>
+  <si>
+    <t>16.912323671248092</t>
+  </si>
+  <si>
+    <t>17.78256051629728</t>
+  </si>
+  <si>
+    <t>15.722092727225004</t>
+  </si>
+  <si>
+    <t>15.598356199501277</t>
+  </si>
+  <si>
+    <t>14.243129001906036</t>
+  </si>
+  <si>
+    <t>14.659396642862111</t>
+  </si>
+  <si>
+    <t>11.838171960192891</t>
+  </si>
+  <si>
+    <t>13.70614620700582</t>
+  </si>
+  <si>
+    <t>16.32943640061602</t>
+  </si>
+  <si>
+    <t>17.38008649962947</t>
+  </si>
+  <si>
+    <t>17.510887646876675</t>
+  </si>
+  <si>
+    <t>20.037753469745596</t>
+  </si>
+  <si>
+    <t>19.908466292814197</t>
+  </si>
+  <si>
+    <t>19.555854487615257</t>
+  </si>
+  <si>
+    <t>18.14468755601512</t>
+  </si>
+  <si>
+    <t>18.48094774015463</t>
+  </si>
+  <si>
+    <t>19.198725725101454</t>
+  </si>
+  <si>
+    <t>19.335012355400725</t>
+  </si>
+  <si>
+    <t>19.436190265382457</t>
+  </si>
+  <si>
+    <t>20.861899741213556</t>
+  </si>
+  <si>
+    <t>20.80944483271741</t>
+  </si>
+  <si>
+    <t>20.097629037432295</t>
+  </si>
+  <si>
+    <t>19.452959916035354</t>
+  </si>
+  <si>
+    <t>19.71068906901757</t>
+  </si>
+  <si>
+    <t>19.30441968425398</t>
+  </si>
+  <si>
+    <t>19.81238961808436</t>
+  </si>
+  <si>
+    <t>18.36317344479459</t>
+  </si>
+  <si>
+    <t>19.101749734121736</t>
+  </si>
+  <si>
+    <t>18.817278417598377</t>
+  </si>
+  <si>
+    <t>17.657787986008977</t>
+  </si>
+  <si>
+    <t>15.515086812076284</t>
+  </si>
+  <si>
+    <t>16.951221623744892</t>
+  </si>
+  <si>
+    <t>16.685896886107255</t>
+  </si>
+  <si>
+    <t>16.696690067549056</t>
+  </si>
+  <si>
+    <t>17.51351531913272</t>
+  </si>
+  <si>
+    <t>19.428913561662036</t>
+  </si>
+  <si>
+    <t>20.056117849988894</t>
+  </si>
+  <si>
+    <t>20.14919914825127</t>
+  </si>
+  <si>
+    <t>20.484524125233634</t>
+  </si>
+  <si>
+    <t>19.55439893718619</t>
+  </si>
+  <si>
+    <t>18.16700755585842</t>
+  </si>
+  <si>
+    <t>17.90693942934019</t>
+  </si>
+  <si>
+    <t>14.066209417322154</t>
+  </si>
+  <si>
+    <t>11.901226578402204</t>
+  </si>
+  <si>
+    <t>11.88324999712194</t>
+  </si>
+  <si>
+    <t>10.90454187936356</t>
+  </si>
+  <si>
+    <t>9.746440075288842</t>
+  </si>
+  <si>
+    <t>13.59409713379421</t>
+  </si>
+  <si>
+    <t>17.26655229366439</t>
+  </si>
+  <si>
+    <t>16.144513346067146</t>
+  </si>
+  <si>
+    <t>16.36359438245281</t>
+  </si>
+  <si>
+    <t>17.72460363536621</t>
+  </si>
+  <si>
+    <t>17.57008037169741</t>
+  </si>
+  <si>
+    <t>17.32619382819912</t>
+  </si>
+  <si>
+    <t>18.263304201919695</t>
+  </si>
+  <si>
+    <t>19.012532903368626</t>
+  </si>
+  <si>
+    <t>18.834954125272166</t>
+  </si>
+  <si>
+    <t>17.739525140023684</t>
+  </si>
+  <si>
+    <t>17.20539741994573</t>
+  </si>
+  <si>
+    <t>16.539959597083843</t>
+  </si>
+  <si>
+    <t>17.542702126414028</t>
+  </si>
+  <si>
+    <t>17.47318933554635</t>
+  </si>
+  <si>
+    <t>18.29953828037901</t>
+  </si>
+  <si>
+    <t>16.261784892948988</t>
+  </si>
+  <si>
+    <t>16.487002759053563</t>
+  </si>
+  <si>
+    <t>16.42448058131705</t>
+  </si>
+  <si>
+    <t>14.95159304258628</t>
+  </si>
+  <si>
+    <t>15.218651509173963</t>
+  </si>
+  <si>
+    <t>17.268721159710744</t>
+  </si>
+  <si>
+    <t>17.94059191748815</t>
+  </si>
+  <si>
+    <t>18.532229253528463</t>
+  </si>
+  <si>
+    <t>18.515623747363293</t>
+  </si>
+  <si>
+    <t>18.531907836373115</t>
+  </si>
+  <si>
+    <t>18.346535363875827</t>
+  </si>
+  <si>
+    <t>17.92765308484087</t>
+  </si>
+  <si>
+    <t>17.78411615121538</t>
+  </si>
+  <si>
+    <t>17.86155807807156</t>
+  </si>
+  <si>
+    <t>18.29794772843922</t>
+  </si>
+  <si>
+    <t>18.35420308887015</t>
+  </si>
+  <si>
+    <t>18.230082803648557</t>
+  </si>
+  <si>
+    <t>18.45091425259234</t>
+  </si>
+  <si>
+    <t>18.92583675699121</t>
+  </si>
+  <si>
+    <t>18.892643248559505</t>
+  </si>
+  <si>
+    <t>18.607435373482897</t>
+  </si>
+  <si>
+    <t>18.865861929727213</t>
+  </si>
+  <si>
+    <t>18.43135673802822</t>
+  </si>
+  <si>
+    <t>17.930696433982067</t>
+  </si>
+  <si>
+    <t>17.870559998510018</t>
+  </si>
+  <si>
+    <t>18.520786473772816</t>
+  </si>
+  <si>
+    <t>18.27469508216476</t>
+  </si>
+  <si>
+    <t>18.376782556179094</t>
+  </si>
+  <si>
+    <t>18.32817584655465</t>
+  </si>
+  <si>
+    <t>18.652825213458883</t>
+  </si>
+  <si>
+    <t>18.856506719392932</t>
+  </si>
+  <si>
+    <t>18.766322771791636</t>
+  </si>
+  <si>
+    <t>18.80835637198764</t>
+  </si>
+  <si>
+    <t>18.772322753123085</t>
+  </si>
+  <si>
+    <t>18.851280192492723</t>
+  </si>
+  <si>
+    <t>18.849127062517923</t>
+  </si>
+  <si>
+    <t>18.87804192018916</t>
+  </si>
+  <si>
+    <t>18.696099186788537</t>
+  </si>
+  <si>
+    <t>18.989041510629193</t>
+  </si>
+  <si>
+    <t>18.790736112315347</t>
+  </si>
+  <si>
+    <t>18.672631717654394</t>
+  </si>
+  <si>
+    <t>18.958434036141778</t>
+  </si>
+  <si>
+    <t>18.93148390873386</t>
+  </si>
+  <si>
+    <t>19.04891174083425</t>
+  </si>
+  <si>
+    <t>19.21689847062602</t>
+  </si>
+  <si>
+    <t>19.08414181098363</t>
+  </si>
+  <si>
+    <t>18.802849141105195</t>
+  </si>
+  <si>
+    <t>18.209650958110466</t>
+  </si>
+  <si>
+    <t>17.783922665626164</t>
+  </si>
+  <si>
+    <t>17.75583311915151</t>
+  </si>
+  <si>
+    <t>17.667304869444596</t>
+  </si>
+  <si>
+    <t>17.940713719286094</t>
+  </si>
+  <si>
+    <t>18.55849839012936</t>
+  </si>
+  <si>
+    <t>18.908467831405808</t>
+  </si>
+  <si>
+    <t>18.588648333079057</t>
+  </si>
+  <si>
+    <t>18.770621742141735</t>
+  </si>
+  <si>
+    <t>18.870370738718712</t>
+  </si>
+  <si>
+    <t>18.700032738323486</t>
+  </si>
+  <si>
+    <t>18.32796284252723</t>
+  </si>
+  <si>
+    <t>18.29961233472997</t>
+  </si>
+  <si>
+    <t>18.401460742871848</t>
+  </si>
+  <si>
+    <t>18.172539643889102</t>
+  </si>
+  <si>
+    <t>17.812364104277307</t>
+  </si>
+  <si>
+    <t>18.097506699149505</t>
+  </si>
+  <si>
+    <t>18.377116353126873</t>
+  </si>
+  <si>
+    <t>18.140719174599244</t>
+  </si>
+  <si>
+    <t>17.85514225011549</t>
+  </si>
+  <si>
+    <t>18.037222729685332</t>
+  </si>
+  <si>
+    <t>18.212470288305152</t>
+  </si>
+  <si>
+    <t>18.111806738775115</t>
+  </si>
+  <si>
+    <t>18.39005724931299</t>
+  </si>
+  <si>
+    <t>18.808629431766406</t>
+  </si>
+  <si>
+    <t>18.428691547251958</t>
+  </si>
+  <si>
+    <t>18.275521765854638</t>
+  </si>
+  <si>
+    <t>18.426113699707876</t>
+  </si>
+  <si>
+    <t>18.301374417087594</t>
+  </si>
+  <si>
+    <t>18.156660837106518</t>
+  </si>
+  <si>
+    <t>18.24487598491576</t>
+  </si>
+  <si>
+    <t>18.078651128928886</t>
+  </si>
+  <si>
+    <t>17.692404006326704</t>
+  </si>
+  <si>
+    <t>17.931386309057075</t>
+  </si>
+  <si>
+    <t>18.150764893617463</t>
+  </si>
+  <si>
+    <t>18.304379346923866</t>
+  </si>
+  <si>
+    <t>18.621323136034803</t>
+  </si>
+  <si>
+    <t>18.259932230594046</t>
+  </si>
+  <si>
+    <t>18.21797515397455</t>
+  </si>
+  <si>
+    <t>18.248912233216778</t>
+  </si>
+  <si>
+    <t>17.938455265646326</t>
+  </si>
+  <si>
+    <t>17.841072423748262</t>
+  </si>
+  <si>
+    <t>18.05943111237096</t>
+  </si>
+  <si>
+    <t>17.915852545381917</t>
+  </si>
+  <si>
+    <t>17.816591079733133</t>
+  </si>
+  <si>
+    <t>17.933907273994485</t>
+  </si>
+  <si>
+    <t>17.839149513205328</t>
+  </si>
+  <si>
+    <t>17.76282834311112</t>
+  </si>
+  <si>
+    <t>17.90160331621689</t>
+  </si>
+  <si>
+    <t>17.66763607933722</t>
+  </si>
+  <si>
+    <t>17.974120812910574</t>
+  </si>
+  <si>
+    <t>17.97008122967191</t>
+  </si>
+  <si>
+    <t>17.586008661309723</t>
+  </si>
+  <si>
+    <t>17.26752091512967</t>
+  </si>
+  <si>
+    <t>17.568358657172183</t>
+  </si>
+  <si>
+    <t>1.8634980481976986</t>
+  </si>
+  <si>
+    <t>6.149799129845609</t>
+  </si>
+  <si>
+    <t>6.592462967464724</t>
+  </si>
+  <si>
+    <t>6.302980269076551</t>
+  </si>
+  <si>
+    <t>1.664209933763017</t>
+  </si>
+  <si>
+    <t>1.1655778732533522</t>
+  </si>
+  <si>
+    <t>2.7530337419065107</t>
+  </si>
+  <si>
+    <t>6.505629264967109</t>
+  </si>
+  <si>
+    <t>6.790034624306137</t>
+  </si>
+  <si>
+    <t>10.944857048243684</t>
+  </si>
+  <si>
+    <t>7.380429885614777</t>
+  </si>
+  <si>
+    <t>5.510189653012219</t>
+  </si>
+  <si>
+    <t>4.685921727546704</t>
+  </si>
+  <si>
+    <t>0.8773907233311142</t>
+  </si>
+  <si>
+    <t>0.23327464947033105</t>
+  </si>
+  <si>
+    <t>4.189879626206282</t>
+  </si>
+  <si>
+    <t>1.5433886241223624</t>
+  </si>
+  <si>
+    <t>5.600768700114266</t>
+  </si>
+  <si>
+    <t>9.567948158190609</t>
+  </si>
+  <si>
+    <t>14.026213865090739</t>
+  </si>
+  <si>
+    <t>10.363255628764039</t>
+  </si>
+  <si>
+    <t>13.134994535727849</t>
+  </si>
+  <si>
+    <t>13.287093317201274</t>
+  </si>
+  <si>
+    <t>9.079737352671646</t>
+  </si>
+  <si>
+    <t>9.361396329109674</t>
+  </si>
+  <si>
+    <t>5.726500637321148</t>
+  </si>
+  <si>
+    <t>1.7695609260537322</t>
+  </si>
+  <si>
+    <t>0.37683638696154365</t>
+  </si>
+  <si>
+    <t>0.48052705270928003</t>
+  </si>
+  <si>
+    <t>2.208323022500375</t>
+  </si>
+  <si>
+    <t>2.8127121789178395</t>
+  </si>
+  <si>
+    <t>2.5068265821718487</t>
+  </si>
+  <si>
+    <t>2.5299555957414857</t>
+  </si>
+  <si>
+    <t>1.1155476195921272</t>
+  </si>
+  <si>
+    <t>4.151253500454522</t>
+  </si>
+  <si>
+    <t>9.142235740536421</t>
+  </si>
+  <si>
+    <t>13.493578787329033</t>
+  </si>
+  <si>
+    <t>9.651325502068753</t>
+  </si>
+  <si>
+    <t>5.979587156838172</t>
+  </si>
+  <si>
+    <t>2.2339237139750496</t>
+  </si>
+  <si>
+    <t>1.0908837820793693</t>
+  </si>
+  <si>
+    <t>4.605590935753069</t>
+  </si>
+  <si>
+    <t>5.648039430407479</t>
+  </si>
+  <si>
+    <t>6.669134940130563</t>
+  </si>
+  <si>
+    <t>6.0650698629230515</t>
+  </si>
+  <si>
+    <t>2.909550704960549</t>
+  </si>
+  <si>
+    <t>2.911631623082851</t>
+  </si>
+  <si>
+    <t>2.2075987512254627</t>
+  </si>
+  <si>
+    <t>5.751928175064251</t>
+  </si>
+  <si>
+    <t>7.384481331082446</t>
+  </si>
+  <si>
+    <t>6.962641916634345</t>
+  </si>
+  <si>
+    <t>7.508962682196914</t>
+  </si>
+  <si>
+    <t>5.056455619337362</t>
+  </si>
+  <si>
+    <t>3.408945356610772</t>
+  </si>
+  <si>
+    <t>2.4019616958420777</t>
+  </si>
+  <si>
+    <t>1.3293081353858909</t>
+  </si>
+  <si>
+    <t>1.1408821524522694</t>
+  </si>
+  <si>
+    <t>5.519500523830026</t>
+  </si>
+  <si>
+    <t>9.822713706833213</t>
+  </si>
+  <si>
+    <t>5.869582993287321</t>
+  </si>
+  <si>
+    <t>5.388280184438642</t>
+  </si>
+  <si>
+    <t>2.5600953765812156</t>
+  </si>
+  <si>
+    <t>2.5986956883287635</t>
+  </si>
+  <si>
+    <t>2.9501286505584448</t>
+  </si>
+  <si>
+    <t>7.223995207630402</t>
+  </si>
+  <si>
+    <t>8.405547329103223</t>
+  </si>
+  <si>
+    <t>7.064107194915692</t>
+  </si>
+  <si>
+    <t>6.451340738866737</t>
+  </si>
+  <si>
+    <t>10.632753740403363</t>
+  </si>
+  <si>
+    <t>5.621665920468676</t>
+  </si>
+  <si>
+    <t>9.201172064008482</t>
+  </si>
+  <si>
+    <t>13.527125059040133</t>
+  </si>
+  <si>
+    <t>10.28436638292276</t>
+  </si>
+  <si>
+    <t>6.064414300966498</t>
+  </si>
+  <si>
+    <t>3.6893564380338115</t>
+  </si>
+  <si>
+    <t>0.2650502198383837</t>
+  </si>
+  <si>
+    <t>1.0275881730554177</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
@@ -1240,39 +2367,48 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1462,25 +2598,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.44"/>
-    <col customWidth="1" min="2" max="5" width="18.78"/>
-    <col customWidth="1" min="6" max="26" width="11.0"/>
+    <col min="1" max="1" width="8.4140625" customWidth="1"/>
+    <col min="2" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" customWidth="1"/>
+    <col min="10" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1496,10 +2638,22 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
+      <c r="F1" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -1513,10 +2667,22 @@
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
+      <c r="F2" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -1530,10 +2696,22 @@
       <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+      <c r="F3">
+        <v>5.74564855764139</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -1547,10 +2725,22 @@
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+      <c r="F4" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -1564,10 +2754,22 @@
       <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+      <c r="F5" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>21</v>
@@ -1581,10 +2783,22 @@
       <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+      <c r="F6" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>25</v>
@@ -1598,10 +2812,22 @@
       <c r="E7" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+      <c r="F7" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>29</v>
@@ -1615,10 +2841,22 @@
       <c r="E8" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
+      <c r="F8" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>33</v>
@@ -1632,10 +2870,22 @@
       <c r="E9" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+      <c r="F9" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>37</v>
@@ -1649,10 +2899,22 @@
       <c r="E10" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+      <c r="F10" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>41</v>
@@ -1666,10 +2928,22 @@
       <c r="E11" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
+      <c r="F11" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>45</v>
@@ -1683,10 +2957,22 @@
       <c r="E12" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
+      <c r="F12" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>49</v>
@@ -1700,10 +2986,22 @@
       <c r="E13" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+      <c r="F13" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>53</v>
@@ -1717,10 +3015,22 @@
       <c r="E14" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+      <c r="F14" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
-        <v>390.0</v>
+        <v>390</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>57</v>
@@ -1734,10 +3044,22 @@
       <c r="E15" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
+      <c r="F15">
+        <v>5.2212445011227899</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
-        <v>420.0</v>
+        <v>420</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>60</v>
@@ -1751,10 +3073,22 @@
       <c r="E16" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
+      <c r="F16" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>64</v>
@@ -1768,10 +3102,22 @@
       <c r="E17" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
+      <c r="F17" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
-        <v>480.0</v>
+        <v>480</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>68</v>
@@ -1785,10 +3131,22 @@
       <c r="E18" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
+      <c r="F18" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
-        <v>510.0</v>
+        <v>510</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>72</v>
@@ -1802,16 +3160,28 @@
       <c r="E19" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
+      <c r="F19" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
-        <v>540.0</v>
+        <v>540</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C20" s="2">
-        <v>793.610928025538</v>
+        <v>793.61092802553799</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>77</v>
@@ -1819,10 +3189,22 @@
       <c r="E20" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+      <c r="F20" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
-        <v>570.0</v>
+        <v>570</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>79</v>
@@ -1836,10 +3218,22 @@
       <c r="E21" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+      <c r="F21" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
-        <v>600.0</v>
+        <v>600</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>83</v>
@@ -1853,10 +3247,22 @@
       <c r="E22" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+      <c r="F22" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
-        <v>630.0</v>
+        <v>630</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>87</v>
@@ -1870,10 +3276,22 @@
       <c r="E23" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+      <c r="F23" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
-        <v>660.0</v>
+        <v>660</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>91</v>
@@ -1887,10 +3305,22 @@
       <c r="E24" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+      <c r="F24" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="H24">
+        <v>18.496632204256201</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
-        <v>690.0</v>
+        <v>690</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>95</v>
@@ -1904,10 +3334,22 @@
       <c r="E25" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+      <c r="F25" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="H25">
+        <v>18.650153878379299</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
-        <v>720.0</v>
+        <v>720</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>99</v>
@@ -1921,10 +3363,22 @@
       <c r="E26" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+      <c r="F26" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
-        <v>750.0</v>
+        <v>750</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>103</v>
@@ -1938,10 +3392,22 @@
       <c r="E27" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+      <c r="F27">
+        <v>13.063480632106501</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
-        <v>780.0</v>
+        <v>780</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>107</v>
@@ -1955,10 +3421,22 @@
       <c r="E28" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+      <c r="F28" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
-        <v>810.0</v>
+        <v>810</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>111</v>
@@ -1972,10 +3450,22 @@
       <c r="E29" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+      <c r="F29" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
-        <v>840.0</v>
+        <v>840</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>115</v>
@@ -1989,10 +3479,22 @@
       <c r="E30" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+      <c r="F30" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
-        <v>870.0</v>
+        <v>870</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>119</v>
@@ -2006,10 +3508,22 @@
       <c r="E31" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+      <c r="F31" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>123</v>
@@ -2023,10 +3537,22 @@
       <c r="E32" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+      <c r="F32">
+        <v>-1.98497944452493</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
-        <v>930.0</v>
+        <v>930</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>127</v>
@@ -2040,10 +3566,22 @@
       <c r="E33" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+      <c r="F33">
+        <v>-2.2637009361359999</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
-        <v>960.0</v>
+        <v>960</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>131</v>
@@ -2052,15 +3590,27 @@
         <v>132</v>
       </c>
       <c r="D34" s="2">
-        <v>1446.30926225876</v>
+        <v>1446.3092622587601</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+      <c r="F34">
+        <v>-2.27156129717158</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
-        <v>990.0</v>
+        <v>990</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>134</v>
@@ -2074,10 +3624,22 @@
       <c r="E35" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+      <c r="F35">
+        <v>-2.8425085383342301</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
-        <v>1020.0</v>
+        <v>1020</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>138</v>
@@ -2091,13 +3653,25 @@
       <c r="E36" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+      <c r="F36" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="I36">
+        <v>20.113507046008898</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
-        <v>1050.0</v>
+        <v>1050</v>
       </c>
       <c r="B37" s="2">
-        <v>340.887395186497</v>
+        <v>340.88739518649697</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>142</v>
@@ -2108,10 +3682,22 @@
       <c r="E37" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+      <c r="F37" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
-        <v>1080.0</v>
+        <v>1080</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>145</v>
@@ -2125,10 +3711,22 @@
       <c r="E38" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+      <c r="F38" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
-        <v>1110.0</v>
+        <v>1110</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>149</v>
@@ -2142,16 +3740,28 @@
       <c r="E39" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+      <c r="F39" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
-        <v>1140.0</v>
+        <v>1140</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C40" s="2">
-        <v>1312.95785494676</v>
+        <v>1312.9578549467601</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>154</v>
@@ -2159,10 +3769,22 @@
       <c r="E40" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+      <c r="F40" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
-        <v>1170.0</v>
+        <v>1170</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>156</v>
@@ -2176,10 +3798,22 @@
       <c r="E41" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+      <c r="F41">
+        <v>-1.2227953361566499</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
-        <v>1200.0</v>
+        <v>1200</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>160</v>
@@ -2193,10 +3827,22 @@
       <c r="E42" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+      <c r="F42" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
-        <v>1230.0</v>
+        <v>1230</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>164</v>
@@ -2210,13 +3856,25 @@
       <c r="E43" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+      <c r="F43" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="H43">
+        <v>19.305700096199899</v>
+      </c>
+      <c r="I43">
+        <v>19.916359382751601</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
-        <v>1260.0</v>
+        <v>1260</v>
       </c>
       <c r="B44" s="2">
-        <v>604.168852606221</v>
+        <v>604.16885260622098</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>168</v>
@@ -2227,10 +3885,22 @@
       <c r="E44" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+      <c r="F44" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
-        <v>1290.0</v>
+        <v>1290</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>171</v>
@@ -2244,10 +3914,22 @@
       <c r="E45" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+      <c r="F45" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
-        <v>1320.0</v>
+        <v>1320</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>175</v>
@@ -2261,10 +3943,22 @@
       <c r="E46" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+      <c r="F46" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
-        <v>1350.0</v>
+        <v>1350</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>179</v>
@@ -2278,10 +3972,22 @@
       <c r="E47" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+      <c r="F47" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
-        <v>1380.0</v>
+        <v>1380</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>183</v>
@@ -2295,10 +4001,22 @@
       <c r="E48" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+      <c r="F48">
+        <v>9.9168935903317195</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
-        <v>1410.0</v>
+        <v>1410</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>187</v>
@@ -2312,10 +4030,22 @@
       <c r="E49" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+      <c r="F49" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
-        <v>1440.0</v>
+        <v>1440</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>191</v>
@@ -2329,10 +4059,22 @@
       <c r="E50" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+      <c r="F50" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
-        <v>1470.0</v>
+        <v>1470</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>195</v>
@@ -2346,10 +4088,22 @@
       <c r="E51" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+      <c r="F51">
+        <v>-1.3610234512492101</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>199</v>
@@ -2363,10 +4117,22 @@
       <c r="E52" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+      <c r="F52">
+        <v>-1.6280640406900899</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
-        <v>1530.0</v>
+        <v>1530</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>203</v>
@@ -2380,10 +4146,22 @@
       <c r="E53" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
+      <c r="F53">
+        <v>-2.1926138524244498</v>
+      </c>
+      <c r="G53">
+        <v>20.366424609318301</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="I53">
+        <v>20.7932464247261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
-        <v>1560.0</v>
+        <v>1560</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>207</v>
@@ -2397,10 +4175,22 @@
       <c r="E54" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
+      <c r="F54">
+        <v>-1.4141842495801999</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
-        <v>1590.0</v>
+        <v>1590</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>211</v>
@@ -2414,10 +4204,22 @@
       <c r="E55" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
+      <c r="F55" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
-        <v>1620.0</v>
+        <v>1620</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>215</v>
@@ -2431,10 +4233,22 @@
       <c r="E56" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
+      <c r="F56" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
-        <v>1650.0</v>
+        <v>1650</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>219</v>
@@ -2448,10 +4262,22 @@
       <c r="E57" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
+      <c r="F57" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
-        <v>1680.0</v>
+        <v>1680</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>223</v>
@@ -2465,10 +4291,22 @@
       <c r="E58" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+      <c r="F58" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
-        <v>1710.0</v>
+        <v>1710</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>227</v>
@@ -2482,10 +4320,22 @@
       <c r="E59" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
+      <c r="F59" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
-        <v>1740.0</v>
+        <v>1740</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>231</v>
@@ -2499,10 +4349,22 @@
       <c r="E60" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+      <c r="F60" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
-        <v>1770.0</v>
+        <v>1770</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>235</v>
@@ -2516,13 +4378,25 @@
       <c r="E61" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+      <c r="F61" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="B62" s="2">
-        <v>420.146961597039</v>
+        <v>420.14696159703902</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>239</v>
@@ -2533,10 +4407,22 @@
       <c r="E62" s="2">
         <v>1570.43722503704</v>
       </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+      <c r="F62" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
-        <v>1830.0</v>
+        <v>1830</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>241</v>
@@ -2550,10 +4436,22 @@
       <c r="E63" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+      <c r="F63" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
-        <v>1860.0</v>
+        <v>1860</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>245</v>
@@ -2567,10 +4465,22 @@
       <c r="E64" s="3" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+      <c r="F64" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
-        <v>1890.0</v>
+        <v>1890</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>249</v>
@@ -2584,10 +4494,22 @@
       <c r="E65" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+      <c r="F65" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
-        <v>1920.0</v>
+        <v>1920</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>253</v>
@@ -2601,10 +4523,22 @@
       <c r="E66" s="3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+      <c r="F66" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
-        <v>1950.0</v>
+        <v>1950</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>257</v>
@@ -2618,13 +4552,25 @@
       <c r="E67" s="3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
+      <c r="F67">
+        <v>8.2751412646007196</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
-        <v>1980.0</v>
+        <v>1980</v>
       </c>
       <c r="B68" s="2">
-        <v>579.691294269029</v>
+        <v>579.69129426902896</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>261</v>
@@ -2635,10 +4581,22 @@
       <c r="E68" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
+      <c r="F68" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
-        <v>2010.0</v>
+        <v>2010</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>264</v>
@@ -2652,10 +4610,22 @@
       <c r="E69" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
+      <c r="F69" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
-        <v>2040.0</v>
+        <v>2040</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>268</v>
@@ -2669,10 +4639,22 @@
       <c r="E70" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
+      <c r="F70">
+        <v>3.5538105857468398</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
-        <v>2070.0</v>
+        <v>2070</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>272</v>
@@ -2686,10 +4668,22 @@
       <c r="E71" s="3" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
+      <c r="F71">
+        <v>-0.93806949419683505</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
-        <v>2100.0</v>
+        <v>2100</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>276</v>
@@ -2703,10 +4697,22 @@
       <c r="E72" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
+      <c r="F72" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="G72">
+        <v>19.6064642506336</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
-        <v>2130.0</v>
+        <v>2130</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>280</v>
@@ -2720,10 +4726,22 @@
       <c r="E73" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
+      <c r="F73" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
-        <v>2160.0</v>
+        <v>2160</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>284</v>
@@ -2737,10 +4755,22 @@
       <c r="E74" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
+      <c r="F74" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
-        <v>2190.0</v>
+        <v>2190</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>288</v>
@@ -2754,10 +4784,22 @@
       <c r="E75" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
+      <c r="F75" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
-        <v>2220.0</v>
+        <v>2220</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>292</v>
@@ -2771,10 +4813,22 @@
       <c r="E76" s="3" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
+      <c r="F76" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
-        <v>2250.0</v>
+        <v>2250</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>296</v>
@@ -2788,10 +4842,22 @@
       <c r="E77" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
+      <c r="F77">
+        <v>5.7546652613555596</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="I77">
+        <v>21.518952334969001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
-        <v>2280.0</v>
+        <v>2280</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>300</v>
@@ -2805,10 +4871,22 @@
       <c r="E78" s="3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
+      <c r="F78" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
-        <v>2310.0</v>
+        <v>2310</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>304</v>
@@ -2822,10 +4900,22 @@
       <c r="E79" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
+      <c r="F79" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
-        <v>2340.0</v>
+        <v>2340</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>308</v>
@@ -2839,10 +4929,22 @@
       <c r="E80" s="3" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
+      <c r="F80" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
-        <v>2370.0</v>
+        <v>2370</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>312</v>
@@ -2856,10 +4958,22 @@
       <c r="E81" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
+      <c r="F81" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>316</v>
@@ -2873,10 +4987,22 @@
       <c r="E82" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
+      <c r="F82" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
-        <v>2430.0</v>
+        <v>2430</v>
       </c>
       <c r="B83" s="2">
         <v>749.21676847351</v>
@@ -2890,10 +5016,22 @@
       <c r="E83" s="3" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
+      <c r="F83" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="H83">
+        <v>18.927031668612699</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
-        <v>2460.0</v>
+        <v>2460</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>323</v>
@@ -2907,10 +5045,22 @@
       <c r="E84" s="3" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
+      <c r="F84" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
-        <v>2490.0</v>
+        <v>2490</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>327</v>
@@ -2924,10 +5074,22 @@
       <c r="E85" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
+      <c r="F85" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
-        <v>2520.0</v>
+        <v>2520</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>331</v>
@@ -2941,10 +5103,22 @@
       <c r="E86" s="3" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
+      <c r="F86" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
-        <v>2550.0</v>
+        <v>2550</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>335</v>
@@ -2958,10 +5132,22 @@
       <c r="E87" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
+      <c r="F87" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
-        <v>2580.0</v>
+        <v>2580</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>339</v>
@@ -2975,13 +5161,25 @@
       <c r="E88" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
+      <c r="F88" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
-        <v>2610.0</v>
+        <v>2610</v>
       </c>
       <c r="B89" s="2">
-        <v>915.407746854737</v>
+        <v>915.40774685473696</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>343</v>
@@ -2992,10 +5190,22 @@
       <c r="E89" s="3" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
+      <c r="F89" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
-        <v>2640.0</v>
+        <v>2640</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>346</v>
@@ -3009,10 +5219,22 @@
       <c r="E90" s="3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
+      <c r="F90" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
-        <v>2670.0</v>
+        <v>2670</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>350</v>
@@ -3026,10 +5248,22 @@
       <c r="E91" s="3" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
+      <c r="F91" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
-        <v>2700.0</v>
+        <v>2700</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>354</v>
@@ -3043,10 +5277,22 @@
       <c r="E92" s="3" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
+      <c r="F92" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="I92">
+        <v>20.7271319430209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
-        <v>2730.0</v>
+        <v>2730</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>358</v>
@@ -3060,10 +5306,22 @@
       <c r="E93" s="3" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
+      <c r="F93">
+        <v>6.9122193902101596</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
-        <v>2760.0</v>
+        <v>2760</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>362</v>
@@ -3077,10 +5335,22 @@
       <c r="E94" s="3" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
+      <c r="F94" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="H94">
+        <v>17.794810875476301</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
-        <v>2790.0</v>
+        <v>2790</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>366</v>
@@ -3094,10 +5364,22 @@
       <c r="E95" s="3" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
+      <c r="F95" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
-        <v>2820.0</v>
+        <v>2820</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>370</v>
@@ -3111,13 +5393,25 @@
       <c r="E96" s="3" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
+      <c r="F96">
+        <v>6.2906267809104494E-2</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
-        <v>2850.0</v>
+        <v>2850</v>
       </c>
       <c r="B97" s="2">
-        <v>237.55631424304</v>
+        <v>237.55631424303999</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>374</v>
@@ -3128,10 +5422,22 @@
       <c r="E97" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
+      <c r="F97">
+        <v>-0.21977538678223801</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
-        <v>2880.0</v>
+        <v>2880</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>377</v>
@@ -3145,10 +5451,22 @@
       <c r="E98" s="3" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
+      <c r="F98">
+        <v>-0.20305943778140201</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
-        <v>2910.0</v>
+        <v>2910</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>381</v>
@@ -3162,10 +5480,22 @@
       <c r="E99" s="3" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
+      <c r="F99">
+        <v>-1.3594143768418401</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
-        <v>2940.0</v>
+        <v>2940</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>385</v>
@@ -3179,10 +5509,22 @@
       <c r="E100" s="3" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
+      <c r="F100">
+        <v>-2.0146162857624401</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
-        <v>2970.0</v>
+        <v>2970</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>389</v>
@@ -3196,10 +5538,22 @@
       <c r="E101" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
+      <c r="F101">
+        <v>-2.6904372959065301</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>393</v>
@@ -3213,967 +5567,977 @@
       <c r="E102" s="3" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
+      <c r="F102" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E103" s="4"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D107" s="4"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="123" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>